--- a/Capelin_SPERA_Expenses.xlsx
+++ b/Capelin_SPERA_Expenses.xlsx
@@ -66,9 +66,6 @@
     <t>exchange rate</t>
   </si>
   <si>
-    <t>final value</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Allocated funds</t>
+  </si>
+  <si>
+    <t>final value C$D</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +612,7 @@
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2">
         <f>SUM(F8:F12)</f>
@@ -771,12 +771,12 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -788,40 +788,40 @@
     <row r="21" spans="1:7" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="E22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8">
         <v>63</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8">
         <v>10</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8">
         <v>10.95</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="8">
         <v>83.95</v>
@@ -910,46 +910,46 @@
   <sheetData>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
         <v>79.2</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="22" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="23" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="8">
         <v>12.6</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="8">
         <v>96.8</v>
@@ -1036,46 +1036,46 @@
   <sheetData>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8">
         <v>81.599999999999994</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8">
         <v>5</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="21" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8">
         <v>13</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="8">
         <v>99.6</v>

--- a/Capelin_SPERA_Expenses.xlsx
+++ b/Capelin_SPERA_Expenses.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>final value C$D</t>
+  </si>
+  <si>
+    <t>desk corner maker</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F12" si="0">+E9*D9</f>
+        <f t="shared" ref="F9:F13" si="0">+E9*D9</f>
         <v>126.48</v>
       </c>
     </row>
@@ -760,13 +763,34 @@
         <v>250</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>119</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2">
-        <f>SUM(F8:F12)</f>
-        <v>7533.0599999999995</v>
+        <f>SUM(F8:F13)</f>
+        <v>7652.0599999999995</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">

--- a/Capelin_SPERA_Expenses.xlsx
+++ b/Capelin_SPERA_Expenses.xlsx
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +170,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -261,11 +273,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +639,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,9 +707,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <f>+E8*D8</f>
-        <v>5500.35</v>
+      <c r="F8" s="15">
+        <v>4782.91</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -695,9 +727,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F13" si="0">+E9*D9</f>
-        <v>126.48</v>
+      <c r="F9" s="14">
+        <v>109.98</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,8 +748,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>701.73</v>
+        <v>610.20000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,7 +768,7 @@
         <v>1.66</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F9:F13" si="0">+E11*D11</f>
         <v>954.5</v>
       </c>
     </row>
@@ -790,7 +820,7 @@
       </c>
       <c r="F15" s="2">
         <f>SUM(F8:F13)</f>
-        <v>7652.0599999999995</v>
+        <v>6826.5899999999992</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -918,7 +948,7 @@
     <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
